--- a/Excel/镇魂街/章节关卡/芦花古楼.xlsx
+++ b/Excel/镇魂街/章节关卡/芦花古楼.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\DataConfig\章节关卡\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6021DE44-405C-4F90-BE3F-BCFEC2879D48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reed_tower" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>标识</t>
   </si>
@@ -236,6 +242,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -246,6 +253,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -300,27 +308,12 @@
   <si>
     <t>角色ID</t>
   </si>
-  <si>
-    <t>1301001#1302001</t>
-  </si>
-  <si>
-    <t>1301002#1302002</t>
-  </si>
-  <si>
-    <t>1301008#1302008</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,161 +325,26 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,194 +363,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -715,251 +387,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,61 +436,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1347,19 +733,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="7.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="2" customWidth="1"/>
@@ -1372,7 +758,7 @@
     <col min="11" max="11" width="20.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1454,7 +840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1495,7 +881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="67.5" spans="1:13">
+    <row r="4" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -1536,7 +922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -1553,7 +939,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1592,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -1609,7 +995,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="10">
         <v>1</v>
@@ -1648,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="10">
         <v>2</v>
@@ -1687,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="10">
         <v>3</v>
@@ -1726,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -1765,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="10">
         <v>5</v>
@@ -1804,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="10">
         <v>6</v>
@@ -1843,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="10">
         <v>7</v>
@@ -1882,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -1921,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="10">
         <v>9</v>
@@ -1960,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="10">
         <v>10</v>
@@ -1999,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="10">
         <v>11</v>
@@ -2038,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="10">
         <v>12</v>
@@ -2078,22 +1464,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="2" customWidth="1"/>
@@ -2104,7 +1489,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +1506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -2138,7 +1523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -2155,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -2172,7 +1557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -2181,7 +1566,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -2198,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -2207,7 +1592,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="10">
         <v>1</v>
@@ -2222,7 +1607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="10">
         <v>2</v>
@@ -2237,7 +1622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="10">
         <v>3</v>
@@ -2252,7 +1637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -2267,7 +1652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="10">
         <v>5</v>
@@ -2282,7 +1667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="10">
         <v>6</v>
@@ -2297,7 +1682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="10">
         <v>7</v>
@@ -2312,7 +1697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="10">
         <v>8</v>
@@ -2327,7 +1712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="10">
         <v>9</v>
@@ -2343,22 +1728,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="2" customWidth="1"/>
@@ -2378,7 +1762,7 @@
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2431,7 +1815,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:17">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -2484,7 +1868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:17">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -2537,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="27" spans="1:17">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -2590,7 +1974,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -2641,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:17">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -2664,7 +2048,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:17">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -2685,7 +2069,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="10">
         <v>1</v>
@@ -2714,12 +2098,12 @@
       <c r="J8" s="10">
         <v>1</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>88</v>
+      <c r="K8" s="11">
+        <v>1306001</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="10">
         <v>1</v>
@@ -2729,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="Q8" s="11">
-        <v>1101001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1201001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="10">
         <v>2</v>
@@ -2761,12 +2145,12 @@
       <c r="J9" s="10">
         <v>1</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>89</v>
+      <c r="K9" s="11">
+        <v>1306002</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N9" s="10">
         <v>1</v>
@@ -2776,10 +2160,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="11">
-        <v>1101002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1201002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="10">
         <v>3</v>
@@ -2808,12 +2192,12 @@
       <c r="J10" s="10">
         <v>1</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>90</v>
+      <c r="K10" s="11">
+        <v>1306003</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N10" s="10">
         <v>1</v>
@@ -2823,10 +2207,10 @@
         <v>3</v>
       </c>
       <c r="Q10" s="11">
-        <v>1101008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1201003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="10">
         <v>4</v>
@@ -2859,7 +2243,9 @@
         <v>1303002</v>
       </c>
       <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10">
         <v>2</v>
@@ -2871,7 +2257,7 @@
         <v>1102002</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="10">
         <v>5</v>
@@ -2904,7 +2290,9 @@
         <v>1303004</v>
       </c>
       <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10">
         <v>3</v>
@@ -2916,7 +2304,7 @@
         <v>1102004</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="10">
         <v>6</v>
@@ -2949,7 +2337,9 @@
         <v>1303015</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10">
         <v>4</v>
@@ -2962,8 +2352,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>